--- a/liga_serie_D/datasets_liga_serie_D/links_times_cartola_liga_serie_D.xlsx
+++ b/liga_serie_D/datasets_liga_serie_D/links_times_cartola_liga_serie_D.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -25,22 +25,124 @@
     <t>Link do Time</t>
   </si>
   <si>
-    <t>FBC Colorado</t>
-  </si>
-  <si>
-    <t>FBC Colorado II</t>
-  </si>
-  <si>
-    <t>FBC Colorado III</t>
-  </si>
-  <si>
-    <t>https://cartola.globo.com/#!/time/186283</t>
-  </si>
-  <si>
-    <t>https://cartola.globo.com/#!/time/1863710</t>
-  </si>
-  <si>
-    <t>https://cartola.globo.com/#!/time/5749052</t>
+    <t>FIGUEIRA DA ILHA</t>
+  </si>
+  <si>
+    <t>lsauer fc</t>
+  </si>
+  <si>
+    <t>Noah A 10</t>
+  </si>
+  <si>
+    <t>Santo Ângelo United</t>
+  </si>
+  <si>
+    <t>RHANKA DENTY FC25</t>
+  </si>
+  <si>
+    <t>Texas Club 2025</t>
+  </si>
+  <si>
+    <t>Fedato Futebol Clube</t>
+  </si>
+  <si>
+    <t>Tabajara de Inhaua FC2</t>
+  </si>
+  <si>
+    <t>pura bucha /botafogo</t>
+  </si>
+  <si>
+    <t>VASCO MARTINS FC</t>
+  </si>
+  <si>
+    <t>MauHumor F.C.</t>
+  </si>
+  <si>
+    <t>Tatols Beants F.C</t>
+  </si>
+  <si>
+    <t>TIGRE LEON</t>
+  </si>
+  <si>
+    <t>FC Los Castilho</t>
+  </si>
+  <si>
+    <t>A Lenda Super Vasco F.c</t>
+  </si>
+  <si>
+    <t>FC castelo Branco 2</t>
+  </si>
+  <si>
+    <t>seralex</t>
+  </si>
+  <si>
+    <t>JV5 Tricolor Gaúcho</t>
+  </si>
+  <si>
+    <t>pra sempre imortal fc</t>
+  </si>
+  <si>
+    <t>TATITTA FC</t>
+  </si>
+  <si>
+    <t>https://cartola.globo.com/#!/time/25565675</t>
+  </si>
+  <si>
+    <t>https://cartola.globo.com/#!/time/44810918</t>
+  </si>
+  <si>
+    <t>https://cartola.globo.com/#!/time/49960687</t>
+  </si>
+  <si>
+    <t>https://cartola.globo.com/#!/time/18187555</t>
+  </si>
+  <si>
+    <t>https://cartola.globo.com/#!/time/29411306</t>
+  </si>
+  <si>
+    <t>https://cartola.globo.com/#!/time/1273719</t>
+  </si>
+  <si>
+    <t>https://cartola.globo.com/#!/time/18642587</t>
+  </si>
+  <si>
+    <t>https://cartola.globo.com/#!/time/47543456</t>
+  </si>
+  <si>
+    <t>https://cartola.globo.com/#!/time/18661583</t>
+  </si>
+  <si>
+    <t>https://cartola.globo.com/#!/time/14696986</t>
+  </si>
+  <si>
+    <t>https://cartola.globo.com/#!/time/25751748</t>
+  </si>
+  <si>
+    <t>https://cartola.globo.com/#!/time/212042</t>
+  </si>
+  <si>
+    <t>https://cartola.globo.com/#!/time/3424598</t>
+  </si>
+  <si>
+    <t>https://cartola.globo.com/#!/time/25311459</t>
+  </si>
+  <si>
+    <t>https://cartola.globo.com/#!/time/117598</t>
+  </si>
+  <si>
+    <t>https://cartola.globo.com/#!/time/48279389</t>
+  </si>
+  <si>
+    <t>https://cartola.globo.com/#!/time/29228373</t>
+  </si>
+  <si>
+    <t>https://cartola.globo.com/#!/time/1747619</t>
+  </si>
+  <si>
+    <t>https://cartola.globo.com/#!/time/25313333</t>
+  </si>
+  <si>
+    <t>https://cartola.globo.com/#!/time/49180400</t>
   </si>
 </sst>
 </file>
@@ -411,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -433,10 +535,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>186283</v>
+        <v>25565675</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -444,10 +546,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>1863710</v>
+        <v>44810918</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -455,17 +557,221 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>5749052</v>
+        <v>49960687</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>18187555</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>29411306</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>8</v>
+      </c>
+      <c r="B7">
+        <v>1273719</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>18642587</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>47543456</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>18661583</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>14696986</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>25751748</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>212042</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>3424598</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>25311459</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>117598</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>48279389</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>29228373</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>1747619</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>25313333</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>49180400</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" location="!/time/186283"/>
-    <hyperlink ref="C3" r:id="rId2" location="!/time/1863710"/>
-    <hyperlink ref="C4" r:id="rId3" location="!/time/5749052"/>
+    <hyperlink ref="C2" r:id="rId1" location="!/time/25565675"/>
+    <hyperlink ref="C3" r:id="rId2" location="!/time/44810918"/>
+    <hyperlink ref="C4" r:id="rId3" location="!/time/49960687"/>
+    <hyperlink ref="C5" r:id="rId4" location="!/time/18187555"/>
+    <hyperlink ref="C6" r:id="rId5" location="!/time/29411306"/>
+    <hyperlink ref="C7" r:id="rId6" location="!/time/1273719"/>
+    <hyperlink ref="C8" r:id="rId7" location="!/time/18642587"/>
+    <hyperlink ref="C9" r:id="rId8" location="!/time/47543456"/>
+    <hyperlink ref="C10" r:id="rId9" location="!/time/18661583"/>
+    <hyperlink ref="C11" r:id="rId10" location="!/time/14696986"/>
+    <hyperlink ref="C12" r:id="rId11" location="!/time/25751748"/>
+    <hyperlink ref="C13" r:id="rId12" location="!/time/212042"/>
+    <hyperlink ref="C14" r:id="rId13" location="!/time/3424598"/>
+    <hyperlink ref="C15" r:id="rId14" location="!/time/25311459"/>
+    <hyperlink ref="C16" r:id="rId15" location="!/time/117598"/>
+    <hyperlink ref="C17" r:id="rId16" location="!/time/48279389"/>
+    <hyperlink ref="C18" r:id="rId17" location="!/time/29228373"/>
+    <hyperlink ref="C19" r:id="rId18" location="!/time/1747619"/>
+    <hyperlink ref="C20" r:id="rId19" location="!/time/25313333"/>
+    <hyperlink ref="C21" r:id="rId20" location="!/time/49180400"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
